--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open CV library\Project\Diem Danh Zoom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open CV library\Project\GitHub\Diem Danh Zoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7809D79-B849-4789-8E88-44AE46DAF1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373150F9-9AD9-4B24-AAD9-BB05946AFEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,186 +411,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
